--- a/7/2/1/2/Sociedades financieras 2003 a 2021 - Trimestral.xlsx
+++ b/7/2/1/2/Sociedades financieras 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Serie</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3411,13 +3414,13 @@
         <v>84</v>
       </c>
       <c r="B74">
-        <v>1198</v>
+        <v>1206</v>
       </c>
       <c r="C74">
-        <v>1375</v>
+        <v>1461</v>
       </c>
       <c r="D74">
-        <v>-336</v>
+        <v>-320</v>
       </c>
       <c r="E74">
         <v>-902</v>
@@ -3426,22 +3429,60 @@
         <v>-30</v>
       </c>
       <c r="G74">
-        <v>1306</v>
+        <v>1414</v>
       </c>
       <c r="H74">
         <v>-902</v>
       </c>
       <c r="I74">
-        <v>2208</v>
+        <v>2317</v>
       </c>
       <c r="J74">
+        <v>75</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75">
+        <v>1284</v>
+      </c>
+      <c r="C75">
+        <v>412</v>
+      </c>
+      <c r="D75">
+        <v>-401</v>
+      </c>
+      <c r="E75">
+        <v>-8347</v>
+      </c>
+      <c r="F75">
+        <v>14</v>
+      </c>
+      <c r="G75">
+        <v>-7039</v>
+      </c>
+      <c r="H75">
+        <v>-8347</v>
+      </c>
+      <c r="I75">
+        <v>1308</v>
+      </c>
+      <c r="J75">
         <v>79</v>
       </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>2128</v>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1229</v>
       </c>
     </row>
   </sheetData>
